--- a/Assets/Shared/ExcelImporter/Excels/CharacterAbilityDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/CharacterAbilityDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwkim\Desktop\DataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB53E6C-0AB2-4F69-9083-6CD7EF15C120}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018A981-CF83-4095-AD2C-B04945EFB395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="5175" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{CC5CA64C-AC79-4569-95FD-2B26D191F227}"/>
+    <workbookView xWindow="3060" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{CC5CA64C-AC79-4569-95FD-2B26D191F227}"/>
   </bookViews>
   <sheets>
     <sheet name="OneStarDatas" sheetId="3" r:id="rId1"/>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4C8E14-103F-45BD-8EC0-1B8C46FF35BA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,7 +736,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>17</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>19</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>20</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>21</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>23</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>24</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>27</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>25</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>26</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>28</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>31</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>30</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>29</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>32</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>33</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>34</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>36</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>35</v>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J30"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>17</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>19</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>20</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>21</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>23</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>24</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>27</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>25</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>26</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>28</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>31</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>30</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>29</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>32</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>33</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>34</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>36</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>35</v>
@@ -2725,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47759B0E-05DD-4FFC-BDE9-085A8C2815BF}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>17</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>19</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>20</v>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>21</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>23</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>24</v>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>27</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>25</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>26</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>28</v>
@@ -3480,7 +3480,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>31</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>30</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>29</v>
@@ -3576,7 +3576,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>32</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>33</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>34</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>36</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>35</v>
